--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_10_9_matched_errors_T45.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_10_9_matched_errors_T45.xlsx
@@ -539,40 +539,43 @@
       <c r="J2">
         <v>0.06977539074583408</v>
       </c>
+      <c r="K2">
+        <v>0.3047833907458341</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3">
-        <v>2.174397541324862</v>
+        <v>10.04419022232486</v>
       </c>
       <c r="C3">
-        <v>10.04419022232486</v>
+        <v>-8.284815777675137</v>
       </c>
       <c r="D3">
-        <v>-8.284815777675137</v>
+        <v>-0.1447337776751375</v>
       </c>
       <c r="E3">
-        <v>-0.1447337776751375</v>
+        <v>1.643575222324863</v>
       </c>
       <c r="F3">
-        <v>1.643575222324863</v>
+        <v>-1.534543777675137</v>
       </c>
       <c r="G3">
-        <v>-1.534543777675137</v>
+        <v>-1.829872777675137</v>
       </c>
       <c r="H3">
-        <v>-1.829872777675137</v>
+        <v>0.6845722223248626</v>
       </c>
       <c r="I3">
-        <v>0.6845722223248626</v>
+        <v>-0.2451497776751375</v>
       </c>
       <c r="J3">
-        <v>-0.2451497776751375</v>
+        <v>-0.01014177767513746</v>
       </c>
       <c r="K3">
-        <v>-0.01014177767513746</v>
+        <v>-0.3172777776751375</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -580,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>8.987815262142332</v>
+        <v>-9.341190737857668</v>
       </c>
       <c r="C4">
-        <v>-9.341190737857668</v>
+        <v>-1.201108737857667</v>
       </c>
       <c r="D4">
-        <v>-1.201108737857667</v>
+        <v>0.5872002621423329</v>
       </c>
       <c r="E4">
-        <v>0.5872002621423329</v>
+        <v>-2.590918737857667</v>
       </c>
       <c r="F4">
-        <v>-2.590918737857667</v>
+        <v>-2.886247737857667</v>
       </c>
       <c r="G4">
-        <v>-2.886247737857667</v>
+        <v>-0.371802737857667</v>
       </c>
       <c r="H4">
-        <v>-0.371802737857667</v>
+        <v>-1.301524737857667</v>
       </c>
       <c r="I4">
-        <v>-1.301524737857667</v>
+        <v>-1.066516737857667</v>
       </c>
       <c r="J4">
-        <v>-1.066516737857667</v>
+        <v>-1.373652737857667</v>
       </c>
       <c r="K4">
-        <v>-1.373652737857667</v>
+        <v>-0.862976737857667</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -615,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-8.470544361886736</v>
+        <v>-0.3304623618867365</v>
       </c>
       <c r="C5">
-        <v>-0.3304623618867365</v>
+        <v>1.457846638113264</v>
       </c>
       <c r="D5">
-        <v>1.457846638113264</v>
+        <v>-1.720272361886736</v>
       </c>
       <c r="E5">
-        <v>-1.720272361886736</v>
+        <v>-2.015601361886736</v>
       </c>
       <c r="F5">
-        <v>-2.015601361886736</v>
+        <v>0.4988436381132635</v>
       </c>
       <c r="G5">
-        <v>0.4988436381132635</v>
+        <v>-0.4308783618867365</v>
       </c>
       <c r="H5">
-        <v>-0.4308783618867365</v>
+        <v>-0.1958703618867365</v>
       </c>
       <c r="I5">
-        <v>-0.1958703618867365</v>
+        <v>-0.5030063618867365</v>
       </c>
       <c r="J5">
-        <v>-0.5030063618867365</v>
+        <v>0.007669638113263488</v>
       </c>
       <c r="K5">
-        <v>0.007669638113263488</v>
+        <v>-0.2796973618867365</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -650,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.34111357821662</v>
+        <v>1.44719542178338</v>
       </c>
       <c r="C6">
-        <v>1.44719542178338</v>
+        <v>-1.73092357821662</v>
       </c>
       <c r="D6">
-        <v>-1.73092357821662</v>
+        <v>-2.02625257821662</v>
       </c>
       <c r="E6">
-        <v>-2.02625257821662</v>
+        <v>0.48819242178338</v>
       </c>
       <c r="F6">
-        <v>0.48819242178338</v>
+        <v>-0.44152957821662</v>
       </c>
       <c r="G6">
-        <v>-0.44152957821662</v>
+        <v>-0.20652157821662</v>
       </c>
       <c r="H6">
-        <v>-0.20652157821662</v>
+        <v>-0.5136575782166199</v>
       </c>
       <c r="I6">
-        <v>-0.5136575782166199</v>
+        <v>-0.002981578216620012</v>
       </c>
       <c r="J6">
-        <v>-0.002981578216620012</v>
+        <v>-0.29034857821662</v>
       </c>
       <c r="K6">
-        <v>-0.29034857821662</v>
+        <v>-0.26234957821662</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -685,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1.338580889567239</v>
+        <v>-1.839538110432761</v>
       </c>
       <c r="C7">
-        <v>-1.839538110432761</v>
+        <v>-2.134867110432761</v>
       </c>
       <c r="D7">
-        <v>-2.134867110432761</v>
+        <v>0.3795778895672392</v>
       </c>
       <c r="E7">
-        <v>0.3795778895672392</v>
+        <v>-0.5501441104327608</v>
       </c>
       <c r="F7">
-        <v>-0.5501441104327608</v>
+        <v>-0.3151361104327608</v>
       </c>
       <c r="G7">
-        <v>-0.3151361104327608</v>
+        <v>-0.6222721104327609</v>
       </c>
       <c r="H7">
-        <v>-0.6222721104327609</v>
+        <v>-0.1115961104327608</v>
       </c>
       <c r="I7">
-        <v>-0.1115961104327608</v>
+        <v>-0.3989631104327608</v>
       </c>
       <c r="J7">
-        <v>-0.3989631104327608</v>
+        <v>-0.3709641104327608</v>
       </c>
       <c r="K7">
-        <v>-0.3709641104327608</v>
+        <v>-0.2783161104327608</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -720,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1.631436389465022</v>
+        <v>-1.926765389465022</v>
       </c>
       <c r="C8">
-        <v>-1.926765389465022</v>
+        <v>0.5876796105349782</v>
       </c>
       <c r="D8">
-        <v>0.5876796105349782</v>
+        <v>-0.3420423894650218</v>
       </c>
       <c r="E8">
-        <v>-0.3420423894650218</v>
+        <v>-0.1070343894650218</v>
       </c>
       <c r="F8">
-        <v>-0.1070343894650218</v>
+        <v>-0.4141703894650218</v>
       </c>
       <c r="G8">
-        <v>-0.4141703894650218</v>
+        <v>0.09650561053497819</v>
       </c>
       <c r="H8">
-        <v>0.09650561053497819</v>
+        <v>-0.1908613894650218</v>
       </c>
       <c r="I8">
-        <v>-0.1908613894650218</v>
+        <v>-0.1628623894650218</v>
       </c>
       <c r="J8">
-        <v>-0.1628623894650218</v>
+        <v>-0.0702143894650218</v>
       </c>
       <c r="K8">
-        <v>-0.0702143894650218</v>
+        <v>0.1427616105349782</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -755,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1.810267219091221</v>
+        <v>0.7041777809087787</v>
       </c>
       <c r="C9">
-        <v>0.7041777809087787</v>
+        <v>-0.2255442190912214</v>
       </c>
       <c r="D9">
-        <v>-0.2255442190912214</v>
+        <v>0.009463780908778634</v>
       </c>
       <c r="E9">
-        <v>0.009463780908778634</v>
+        <v>-0.2976722190912214</v>
       </c>
       <c r="F9">
-        <v>-0.2976722190912214</v>
+        <v>0.2130037809087786</v>
       </c>
       <c r="G9">
-        <v>0.2130037809087786</v>
+        <v>-0.07436321909122137</v>
       </c>
       <c r="H9">
-        <v>-0.07436321909122137</v>
+        <v>-0.04636421909122137</v>
       </c>
       <c r="I9">
-        <v>-0.04636421909122137</v>
+        <v>0.04628378090877863</v>
       </c>
       <c r="J9">
-        <v>0.04628378090877863</v>
+        <v>0.2592597809087786</v>
       </c>
       <c r="K9">
-        <v>0.2592597809087786</v>
+        <v>-0.2414002190912214</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -790,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.7496711949059137</v>
+        <v>-0.1800508050940863</v>
       </c>
       <c r="C10">
-        <v>-0.1800508050940863</v>
+        <v>0.05495719490591373</v>
       </c>
       <c r="D10">
-        <v>0.05495719490591373</v>
+        <v>-0.2521788050940862</v>
       </c>
       <c r="E10">
-        <v>-0.2521788050940862</v>
+        <v>0.2584971949059137</v>
       </c>
       <c r="F10">
-        <v>0.2584971949059137</v>
+        <v>-0.02886980509408627</v>
       </c>
       <c r="G10">
-        <v>-0.02886980509408627</v>
+        <v>-0.0008708050940862688</v>
       </c>
       <c r="H10">
-        <v>-0.0008708050940862688</v>
+        <v>0.09177719490591374</v>
       </c>
       <c r="I10">
-        <v>0.09177719490591374</v>
+        <v>0.3047531949059137</v>
       </c>
       <c r="J10">
-        <v>0.3047531949059137</v>
+        <v>-0.1959068050940863</v>
       </c>
       <c r="K10">
-        <v>-0.1959068050940863</v>
+        <v>0.09385019490591373</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -825,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.1976049264540507</v>
+        <v>0.03740307354594928</v>
       </c>
       <c r="C11">
-        <v>0.03740307354594928</v>
+        <v>-0.2697329264540507</v>
       </c>
       <c r="D11">
-        <v>-0.2697329264540507</v>
+        <v>0.2409430735459493</v>
       </c>
       <c r="E11">
-        <v>0.2409430735459493</v>
+        <v>-0.04642392645405072</v>
       </c>
       <c r="F11">
-        <v>-0.04642392645405072</v>
+        <v>-0.01842492645405072</v>
       </c>
       <c r="G11">
-        <v>-0.01842492645405072</v>
+        <v>0.07422307354594927</v>
       </c>
       <c r="H11">
-        <v>0.07422307354594927</v>
+        <v>0.2871990735459493</v>
       </c>
       <c r="I11">
-        <v>0.2871990735459493</v>
+        <v>-0.2134609264540507</v>
       </c>
       <c r="J11">
-        <v>-0.2134609264540507</v>
+        <v>0.07629607354594928</v>
       </c>
       <c r="K11">
-        <v>0.07629607354594928</v>
+        <v>-0.1815959264540507</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -860,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.1255103924969555</v>
+        <v>-0.1816256075030445</v>
       </c>
       <c r="C12">
-        <v>-0.1816256075030445</v>
+        <v>0.3290503924969555</v>
       </c>
       <c r="D12">
-        <v>0.3290503924969555</v>
+        <v>0.0416833924969555</v>
       </c>
       <c r="E12">
-        <v>0.0416833924969555</v>
+        <v>0.06968239249695551</v>
       </c>
       <c r="F12">
-        <v>0.06968239249695551</v>
+        <v>0.1623303924969555</v>
       </c>
       <c r="G12">
-        <v>0.1623303924969555</v>
+        <v>0.3753063924969555</v>
       </c>
       <c r="H12">
-        <v>0.3753063924969555</v>
+        <v>-0.1253536075030445</v>
       </c>
       <c r="I12">
-        <v>-0.1253536075030445</v>
+        <v>0.1644033924969555</v>
       </c>
       <c r="J12">
-        <v>0.1644033924969555</v>
+        <v>-0.0934886075030445</v>
       </c>
       <c r="K12">
-        <v>-0.0934886075030445</v>
+        <v>0.2888923924969555</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -895,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.003050974015260888</v>
+        <v>0.5076250259847391</v>
       </c>
       <c r="C13">
-        <v>0.5076250259847391</v>
+        <v>0.2202580259847391</v>
       </c>
       <c r="D13">
-        <v>0.2202580259847391</v>
+        <v>0.2482570259847391</v>
       </c>
       <c r="E13">
-        <v>0.2482570259847391</v>
+        <v>0.3409050259847391</v>
       </c>
       <c r="F13">
-        <v>0.3409050259847391</v>
+        <v>0.5538810259847391</v>
       </c>
       <c r="G13">
-        <v>0.5538810259847391</v>
+        <v>0.0532210259847391</v>
       </c>
       <c r="H13">
-        <v>0.0532210259847391</v>
+        <v>0.3429780259847391</v>
       </c>
       <c r="I13">
-        <v>0.3429780259847391</v>
+        <v>0.08508602598473911</v>
       </c>
       <c r="J13">
-        <v>0.08508602598473911</v>
+        <v>0.4674670259847391</v>
       </c>
       <c r="K13">
-        <v>0.4674670259847391</v>
+        <v>0.05618993198473912</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -930,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>1.419652253737389</v>
+        <v>1.132285253737389</v>
       </c>
       <c r="C14">
-        <v>1.132285253737389</v>
+        <v>1.160284253737389</v>
       </c>
       <c r="D14">
-        <v>1.160284253737389</v>
+        <v>1.252932253737389</v>
       </c>
       <c r="E14">
-        <v>1.252932253737389</v>
+        <v>1.465908253737389</v>
       </c>
       <c r="F14">
-        <v>1.465908253737389</v>
+        <v>0.9652482537373891</v>
       </c>
       <c r="G14">
-        <v>0.9652482537373891</v>
+        <v>1.255005253737389</v>
       </c>
       <c r="H14">
-        <v>1.255005253737389</v>
+        <v>0.9971132537373891</v>
       </c>
       <c r="I14">
-        <v>0.9971132537373891</v>
+        <v>1.379494253737389</v>
       </c>
       <c r="J14">
-        <v>1.379494253737389</v>
+        <v>0.9682171597373891</v>
       </c>
       <c r="K14">
-        <v>0.9682171597373891</v>
+        <v>1.255173253737389</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -965,33 +968,30 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.1883110177716323</v>
+        <v>0.2163100177716323</v>
       </c>
       <c r="C15">
-        <v>0.2163100177716323</v>
+        <v>0.3089580177716323</v>
       </c>
       <c r="D15">
-        <v>0.3089580177716323</v>
+        <v>0.5219340177716323</v>
       </c>
       <c r="E15">
-        <v>0.5219340177716323</v>
+        <v>0.02127401777163229</v>
       </c>
       <c r="F15">
-        <v>0.02127401777163229</v>
+        <v>0.3110310177716323</v>
       </c>
       <c r="G15">
-        <v>0.3110310177716323</v>
+        <v>0.0531390177716323</v>
       </c>
       <c r="H15">
-        <v>0.0531390177716323</v>
+        <v>0.4355200177716323</v>
       </c>
       <c r="I15">
-        <v>0.4355200177716323</v>
+        <v>0.02424292377163231</v>
       </c>
       <c r="J15">
-        <v>0.02424292377163231</v>
-      </c>
-      <c r="K15">
         <v>0.3111990177716323</v>
       </c>
     </row>
@@ -1000,179 +1000,152 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.2202779152847414</v>
+        <v>0.3129259152847414</v>
       </c>
       <c r="C16">
-        <v>0.3129259152847414</v>
+        <v>0.5259019152847414</v>
       </c>
       <c r="D16">
-        <v>0.5259019152847414</v>
+        <v>0.0252419152847414</v>
       </c>
       <c r="E16">
-        <v>0.0252419152847414</v>
+        <v>0.3149989152847414</v>
       </c>
       <c r="F16">
-        <v>0.3149989152847414</v>
+        <v>0.05710691528474141</v>
       </c>
       <c r="G16">
-        <v>0.05710691528474141</v>
+        <v>0.4394879152847414</v>
       </c>
       <c r="H16">
-        <v>0.4394879152847414</v>
+        <v>0.02821082128474142</v>
       </c>
       <c r="I16">
-        <v>0.02821082128474142</v>
-      </c>
-      <c r="J16">
         <v>0.3151669152847414</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.4485660054549828</v>
+        <v>0.6615420054549828</v>
       </c>
       <c r="C17">
-        <v>0.6615420054549828</v>
+        <v>0.1608820054549828</v>
       </c>
       <c r="D17">
-        <v>0.1608820054549828</v>
+        <v>0.4506390054549828</v>
       </c>
       <c r="E17">
-        <v>0.4506390054549828</v>
+        <v>0.1927470054549828</v>
       </c>
       <c r="F17">
-        <v>0.1927470054549828</v>
+        <v>0.5751280054549828</v>
       </c>
       <c r="G17">
-        <v>0.5751280054549828</v>
+        <v>0.1638509114549828</v>
       </c>
       <c r="H17">
-        <v>0.1638509114549828</v>
-      </c>
-      <c r="I17">
         <v>0.4508070054549828</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.420735823599318</v>
+        <v>-0.07992417640068192</v>
       </c>
       <c r="C18">
-        <v>-0.07992417640068192</v>
+        <v>0.2098328235993181</v>
       </c>
       <c r="D18">
-        <v>0.2098328235993181</v>
+        <v>-0.04805917640068191</v>
       </c>
       <c r="E18">
-        <v>-0.04805917640068191</v>
+        <v>0.3343218235993181</v>
       </c>
       <c r="F18">
-        <v>0.3343218235993181</v>
+        <v>-0.0769552704006819</v>
       </c>
       <c r="G18">
-        <v>-0.0769552704006819</v>
-      </c>
-      <c r="H18">
         <v>0.2100008235993181</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-0.1252553916527783</v>
+        <v>0.1645016083472217</v>
       </c>
       <c r="C19">
-        <v>0.1645016083472217</v>
+        <v>-0.09339039165277828</v>
       </c>
       <c r="D19">
-        <v>-0.09339039165277828</v>
+        <v>0.2889906083472217</v>
       </c>
       <c r="E19">
-        <v>0.2889906083472217</v>
+        <v>-0.1222864856527783</v>
       </c>
       <c r="F19">
-        <v>-0.1222864856527783</v>
-      </c>
-      <c r="G19">
         <v>0.1646696083472217</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.09764018641116785</v>
+        <v>-0.1602518135888321</v>
       </c>
       <c r="C20">
-        <v>-0.1602518135888321</v>
+        <v>0.2221291864111679</v>
       </c>
       <c r="D20">
-        <v>0.2221291864111679</v>
+        <v>-0.1891479075888321</v>
       </c>
       <c r="E20">
-        <v>-0.1891479075888321</v>
-      </c>
-      <c r="F20">
         <v>0.09780818641116784</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.1898380159455487</v>
+        <v>0.1925429840544512</v>
       </c>
       <c r="C21">
-        <v>0.1925429840544512</v>
+        <v>-0.2187341099455487</v>
       </c>
       <c r="D21">
-        <v>-0.2187341099455487</v>
-      </c>
-      <c r="E21">
         <v>0.06822198405445125</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.1743923273248104</v>
+        <v>-0.2368847666751896</v>
       </c>
       <c r="C22">
-        <v>-0.2368847666751896</v>
-      </c>
-      <c r="D22">
         <v>0.05007132732481036</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.254916590923889</v>
-      </c>
-      <c r="C23">
         <v>0.03203950307611103</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B24">
-        <v>-0.01954473626955232</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_10_9_matched_errors_T45.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_10_9_matched_errors_T45.xlsx
@@ -539,43 +539,40 @@
       <c r="J2">
         <v>0.06977539074583408</v>
       </c>
-      <c r="K2">
-        <v>0.3047833907458341</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3">
+        <v>2.174397541324862</v>
+      </c>
+      <c r="C3">
         <v>10.04419022232486</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-8.284815777675137</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.1447337776751375</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.643575222324863</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-1.534543777675137</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-1.829872777675137</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.6845722223248626</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.2451497776751375</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.01014177767513746</v>
-      </c>
-      <c r="K3">
-        <v>-0.3172777776751375</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +580,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>8.987815262142332</v>
+      </c>
+      <c r="C4">
         <v>-9.341190737857668</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-1.201108737857667</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.5872002621423329</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-2.590918737857667</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-2.886247737857667</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-0.371802737857667</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-1.301524737857667</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-1.066516737857667</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-1.373652737857667</v>
-      </c>
-      <c r="K4">
-        <v>-0.862976737857667</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +615,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>-8.470544361886736</v>
+      </c>
+      <c r="C5">
         <v>-0.3304623618867365</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.457846638113264</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-1.720272361886736</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-2.015601361886736</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.4988436381132635</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-0.4308783618867365</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-0.1958703618867365</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-0.5030063618867365</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.007669638113263488</v>
-      </c>
-      <c r="K5">
-        <v>-0.2796973618867365</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +650,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>-0.34111357821662</v>
+      </c>
+      <c r="C6">
         <v>1.44719542178338</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-1.73092357821662</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-2.02625257821662</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.48819242178338</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-0.44152957821662</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-0.20652157821662</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-0.5136575782166199</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.002981578216620012</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-0.29034857821662</v>
-      </c>
-      <c r="K6">
-        <v>-0.26234957821662</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +685,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>1.338580889567239</v>
+      </c>
+      <c r="C7">
         <v>-1.839538110432761</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-2.134867110432761</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.3795778895672392</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-0.5501441104327608</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-0.3151361104327608</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.6222721104327609</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-0.1115961104327608</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-0.3989631104327608</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-0.3709641104327608</v>
-      </c>
-      <c r="K7">
-        <v>-0.2783161104327608</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +720,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>-1.631436389465022</v>
+      </c>
+      <c r="C8">
         <v>-1.926765389465022</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.5876796105349782</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-0.3420423894650218</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-0.1070343894650218</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-0.4141703894650218</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.09650561053497819</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-0.1908613894650218</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-0.1628623894650218</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-0.0702143894650218</v>
-      </c>
-      <c r="K8">
-        <v>0.1427616105349782</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +755,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>-1.810267219091221</v>
+      </c>
+      <c r="C9">
         <v>0.7041777809087787</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-0.2255442190912214</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.009463780908778634</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-0.2976722190912214</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.2130037809087786</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-0.07436321909122137</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-0.04636421909122137</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.04628378090877863</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.2592597809087786</v>
-      </c>
-      <c r="K9">
-        <v>-0.2414002190912214</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +790,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>0.7496711949059137</v>
+      </c>
+      <c r="C10">
         <v>-0.1800508050940863</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.05495719490591373</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.2521788050940862</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.2584971949059137</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.02886980509408627</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.0008708050940862688</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.09177719490591374</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.3047531949059137</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-0.1959068050940863</v>
-      </c>
-      <c r="K10">
-        <v>0.09385019490591373</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +825,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>-0.1976049264540507</v>
+      </c>
+      <c r="C11">
         <v>0.03740307354594928</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-0.2697329264540507</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.2409430735459493</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-0.04642392645405072</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.01842492645405072</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.07422307354594927</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.2871990735459493</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-0.2134609264540507</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.07629607354594928</v>
-      </c>
-      <c r="K11">
-        <v>-0.1815959264540507</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +860,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>0.1255103924969555</v>
+      </c>
+      <c r="C12">
         <v>-0.1816256075030445</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.3290503924969555</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.0416833924969555</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.06968239249695551</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.1623303924969555</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.3753063924969555</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-0.1253536075030445</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.1644033924969555</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-0.0934886075030445</v>
-      </c>
-      <c r="K12">
-        <v>0.2888923924969555</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +895,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>-0.003050974015260888</v>
+      </c>
+      <c r="C13">
         <v>0.5076250259847391</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.2202580259847391</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.2482570259847391</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.3409050259847391</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.5538810259847391</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.0532210259847391</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.3429780259847391</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.08508602598473911</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.4674670259847391</v>
-      </c>
-      <c r="K13">
-        <v>0.05618993198473912</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +930,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>1.419652253737389</v>
+      </c>
+      <c r="C14">
         <v>1.132285253737389</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1.160284253737389</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1.252932253737389</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1.465908253737389</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.9652482537373891</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1.255005253737389</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.9971132537373891</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1.379494253737389</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.9682171597373891</v>
-      </c>
-      <c r="K14">
-        <v>1.255173253737389</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,30 +965,33 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>0.1883110177716323</v>
+      </c>
+      <c r="C15">
         <v>0.2163100177716323</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.3089580177716323</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.5219340177716323</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.02127401777163229</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.3110310177716323</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.0531390177716323</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.4355200177716323</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.02424292377163231</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.3111990177716323</v>
       </c>
     </row>
@@ -1000,152 +1000,179 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>0.2202779152847414</v>
+      </c>
+      <c r="C16">
         <v>0.3129259152847414</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.5259019152847414</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.0252419152847414</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.3149989152847414</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.05710691528474141</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.4394879152847414</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.02821082128474142</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.3151669152847414</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
+        <v>0.4485660054549828</v>
+      </c>
+      <c r="C17">
         <v>0.6615420054549828</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.1608820054549828</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.4506390054549828</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.1927470054549828</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.5751280054549828</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.1638509114549828</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.4508070054549828</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
+        <v>0.420735823599318</v>
+      </c>
+      <c r="C18">
         <v>-0.07992417640068192</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.2098328235993181</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-0.04805917640068191</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.3343218235993181</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-0.0769552704006819</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.2100008235993181</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
+        <v>-0.1252553916527783</v>
+      </c>
+      <c r="C19">
         <v>0.1645016083472217</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-0.09339039165277828</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.2889906083472217</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-0.1222864856527783</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.1646696083472217</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
+        <v>0.09764018641116785</v>
+      </c>
+      <c r="C20">
         <v>-0.1602518135888321</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.2221291864111679</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-0.1891479075888321</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.09780818641116784</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
+        <v>-0.1898380159455487</v>
+      </c>
+      <c r="C21">
         <v>0.1925429840544512</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-0.2187341099455487</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.06822198405445125</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
+        <v>0.1743923273248104</v>
+      </c>
+      <c r="C22">
         <v>-0.2368847666751896</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.05007132732481036</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
+        <v>-0.254916590923889</v>
+      </c>
+      <c r="C23">
         <v>0.03203950307611103</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.01954473626955232</v>
       </c>
     </row>
   </sheetData>
